--- a/StructureDefinition-ext-R5-OperationDefinition.parameter.xlsx
+++ b/StructureDefinition-ext-R5-OperationDefinition.parameter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -479,7 +479,7 @@
   </si>
   <si>
     <t>Element `OperationDefinition.parameter.scope` is part of an existing definition because parent element `OperationDefinition.parameter` requires a component extension (e.g., if this element is used as a content reference).
-Element `OperationDefinition.parameter.scope` is mapped to FHIR R4 structure `OperationDefinition`, but has no target element specified.</t>
+Element `OperationDefinition.parameter.scope` is will have a context of OperationDefinition.parameter based on following the parent source element upwards and mapping to `OperationDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:scope.id</t>
@@ -648,7 +648,7 @@
   </si>
   <si>
     <t>Element `OperationDefinition.parameter.allowedType` is part of an existing definition because parent element `OperationDefinition.parameter` requires a component extension (e.g., if this element is used as a content reference).
-Element `OperationDefinition.parameter.allowedType` is mapped to FHIR R4 structure `OperationDefinition`, but has no target element specified.</t>
+Element `OperationDefinition.parameter.allowedType` is will have a context of OperationDefinition.parameter based on following the parent source element upwards and mapping to `OperationDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:allowedType.id</t>

--- a/StructureDefinition-ext-R5-OperationDefinition.parameter.xlsx
+++ b/StructureDefinition-ext-R5-OperationDefinition.parameter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,8 @@
 *  R4B: `OperationDefinition.parameter` 0..* `BackboneElement`
 *  R4: `OperationDefinition.parameter` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `OperationDefinition.parameter` is mapped to FHIR R4 element `OperationDefinition.parameter`.</t>
+Element `OperationDefinition.parameter` has is mapped to FHIR R4 element `OperationDefinition.parameter`, but has no comparisons.
+Note available implied context: `OperationDefinition.parameter.part` because `OperationDefinition.parameter.part` is defined as a content reference to `OperationDefinition.parameter`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -142,7 +143,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Extension.extension</t>
+    <t>element:OperationDefinition.parameter</t>
   </si>
   <si>
     <t>ID</t>
@@ -349,8 +350,8 @@
     <t>This name must be a token (start with a letter in a..z, and only contain letters, numerals, and underscore. Note that for search parameters (type = string, with a search type), the name may be altered by the search modifiers.</t>
   </si>
   <si>
-    <t>Element `OperationDefinition.parameter.name` is part of an existing definition because parent element `OperationDefinition.parameter` requires a component extension (e.g., if this element is used as a content reference).
-Element `OperationDefinition.parameter.name` is mapped to FHIR R4 element `OperationDefinition.parameter.name`.</t>
+    <t>Element `OperationDefinition.parameter.name` is part of an existing definition because parent element `OperationDefinition.parameter` requires a cross-version extension.
+Element `OperationDefinition.parameter.name` has is mapped to FHIR R4 element `OperationDefinition.parameter.name`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:name.id</t>
@@ -438,8 +439,8 @@
     <t>If a parameter name is used for both an input and an output parameter, the parameter should be defined twice.</t>
   </si>
   <si>
-    <t>Element `OperationDefinition.parameter.use` is part of an existing definition because parent element `OperationDefinition.parameter` requires a component extension (e.g., if this element is used as a content reference).
-Element `OperationDefinition.parameter.use` is mapped to FHIR R4 element `OperationDefinition.parameter.use`.</t>
+    <t>Element `OperationDefinition.parameter.use` is part of an existing definition because parent element `OperationDefinition.parameter` requires a cross-version extension.
+Element `OperationDefinition.parameter.use` has is mapped to FHIR R4 element `OperationDefinition.parameter.use`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:use.id</t>
@@ -478,8 +479,8 @@
     <t>If present, indicates that the parameter applies when the operation is being invoked at the specified level.</t>
   </si>
   <si>
-    <t>Element `OperationDefinition.parameter.scope` is part of an existing definition because parent element `OperationDefinition.parameter` requires a component extension (e.g., if this element is used as a content reference).
-Element `OperationDefinition.parameter.scope` is will have a context of OperationDefinition.parameter based on following the parent source element upwards and mapping to `OperationDefinition`.</t>
+    <t>Element `OperationDefinition.parameter.scope` is part of an existing definition because parent element `OperationDefinition.parameter` requires a cross-version extension.
+Element `OperationDefinition.parameter.scope` has a context of OperationDefinition.parameter based on following the parent source element upwards and mapping to `OperationDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:scope.id</t>
@@ -509,8 +510,8 @@
     <t>The minimum number of times this parameter SHALL appear in the request or response.</t>
   </si>
   <si>
-    <t>Element `OperationDefinition.parameter.min` is part of an existing definition because parent element `OperationDefinition.parameter` requires a component extension (e.g., if this element is used as a content reference).
-Element `OperationDefinition.parameter.min` is mapped to FHIR R4 element `OperationDefinition.parameter.min`.</t>
+    <t>Element `OperationDefinition.parameter.min` is part of an existing definition because parent element `OperationDefinition.parameter` requires a cross-version extension.
+Element `OperationDefinition.parameter.min` has is mapped to FHIR R4 element `OperationDefinition.parameter.min`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:min.id</t>
@@ -544,8 +545,8 @@
     <t>The maximum number of times this element is permitted to appear in the request or response.</t>
   </si>
   <si>
-    <t>Element `OperationDefinition.parameter.max` is part of an existing definition because parent element `OperationDefinition.parameter` requires a component extension (e.g., if this element is used as a content reference).
-Element `OperationDefinition.parameter.max` is mapped to FHIR R4 element `OperationDefinition.parameter.max`.</t>
+    <t>Element `OperationDefinition.parameter.max` is part of an existing definition because parent element `OperationDefinition.parameter` requires a cross-version extension.
+Element `OperationDefinition.parameter.max` has is mapped to FHIR R4 element `OperationDefinition.parameter.max`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:max.id</t>
@@ -575,8 +576,8 @@
     <t>Describes the meaning or use of this parameter.</t>
   </si>
   <si>
-    <t>Element `OperationDefinition.parameter.documentation` is part of an existing definition because parent element `OperationDefinition.parameter` requires a component extension (e.g., if this element is used as a content reference).
-Element `OperationDefinition.parameter.documentation` is mapped to FHIR R4 element `OperationDefinition.parameter.documentation`.</t>
+    <t>Element `OperationDefinition.parameter.documentation` is part of an existing definition because parent element `OperationDefinition.parameter` requires a cross-version extension.
+Element `OperationDefinition.parameter.documentation` has is mapped to FHIR R4 element `OperationDefinition.parameter.documentation`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:documentation.id</t>
@@ -613,8 +614,8 @@
     <t>if there is no stated parameter, then the parameter is a multi-part parameter type and must have at least one part defined.</t>
   </si>
   <si>
-    <t>Element `OperationDefinition.parameter.type` is part of an existing definition because parent element `OperationDefinition.parameter` requires a component extension (e.g., if this element is used as a content reference).
-Element `OperationDefinition.parameter.type` is mapped to FHIR R4 element `OperationDefinition.parameter.type`.</t>
+    <t>Element `OperationDefinition.parameter.type` is part of an existing definition because parent element `OperationDefinition.parameter` requires a cross-version extension.
+Element `OperationDefinition.parameter.type` has is mapped to FHIR R4 element `OperationDefinition.parameter.type`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -647,8 +648,8 @@
     <t>In previous versions of FHIR, there was an extension for this: http://hl7.org/fhir/StructureDefinition/operationdefinition-allowed-type</t>
   </si>
   <si>
-    <t>Element `OperationDefinition.parameter.allowedType` is part of an existing definition because parent element `OperationDefinition.parameter` requires a component extension (e.g., if this element is used as a content reference).
-Element `OperationDefinition.parameter.allowedType` is will have a context of OperationDefinition.parameter based on following the parent source element upwards and mapping to `OperationDefinition`.</t>
+    <t>Element `OperationDefinition.parameter.allowedType` is part of an existing definition because parent element `OperationDefinition.parameter` requires a cross-version extension.
+Element `OperationDefinition.parameter.allowedType` has a context of OperationDefinition.parameter based on following the parent source element upwards and mapping to `OperationDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:allowedType.id</t>
@@ -681,8 +682,8 @@
     <t>Often, these profiles are the base definitions from the spec (e.g. http://hl7.org/fhir/StructureDefinition/Patient).</t>
   </si>
   <si>
-    <t>Element `OperationDefinition.parameter.targetProfile` is part of an existing definition because parent element `OperationDefinition.parameter` requires a component extension (e.g., if this element is used as a content reference).
-Element `OperationDefinition.parameter.targetProfile` is mapped to FHIR R4 element `OperationDefinition.parameter.targetProfile`.</t>
+    <t>Element `OperationDefinition.parameter.targetProfile` is part of an existing definition because parent element `OperationDefinition.parameter` requires a cross-version extension.
+Element `OperationDefinition.parameter.targetProfile` has is mapped to FHIR R4 element `OperationDefinition.parameter.targetProfile`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:targetProfile.id</t>
@@ -719,8 +720,8 @@
     <t>Parameters that are search parameter usually - but not always - are also defined for use with general searches, and function in the operation to filter the set of resources in scope for the operation just like the do when searching. The searchType describes how the server processes the value. For an example, see the [Evaluate Measure Operation](https://hl7.org/fhir/measure-operation-evaluate-measure.html)</t>
   </si>
   <si>
-    <t>Element `OperationDefinition.parameter.searchType` is part of an existing definition because parent element `OperationDefinition.parameter` requires a component extension (e.g., if this element is used as a content reference).
-Element `OperationDefinition.parameter.searchType` is mapped to FHIR R4 element `OperationDefinition.parameter.searchType`.</t>
+    <t>Element `OperationDefinition.parameter.searchType` is part of an existing definition because parent element `OperationDefinition.parameter` requires a cross-version extension.
+Element `OperationDefinition.parameter.searchType` has is mapped to FHIR R4 element `OperationDefinition.parameter.searchType`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:searchType.id</t>
@@ -756,8 +757,8 @@
     <t>Binds to a value set if this parameter is coded (code, Coding, CodeableConcept).</t>
   </si>
   <si>
-    <t>Element `OperationDefinition.parameter.binding` is part of an existing definition because parent element `OperationDefinition.parameter` requires a component extension (e.g., if this element is used as a content reference).
-Element `OperationDefinition.parameter.binding` is mapped to FHIR R4 element `OperationDefinition.parameter.binding`.</t>
+    <t>Element `OperationDefinition.parameter.binding` is part of an existing definition because parent element `OperationDefinition.parameter` requires a cross-version extension.
+Element `OperationDefinition.parameter.binding` has is mapped to FHIR R4 element `OperationDefinition.parameter.binding`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:binding.id</t>
@@ -784,7 +785,8 @@
     <t>For further discussion, see [Using Terminologies](https://hl7.org/fhir/terminologies.html).</t>
   </si>
   <si>
-    <t>Element `OperationDefinition.parameter.binding.strength` is mapped to FHIR R4 element `OperationDefinition.parameter.binding.strength`.</t>
+    <t>Element `OperationDefinition.parameter.binding.strength` is part of an existing definition because parent element `OperationDefinition.parameter.binding` requires a cross-version extension.
+Element `OperationDefinition.parameter.binding.strength` has is mapped to FHIR R4 element `OperationDefinition.parameter.binding.strength`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:binding.extension:strength.id</t>
@@ -835,7 +837,8 @@
     <t>For value sets with a referenceResource, the display can contain the value set description.  The reference may be version-specific or not.</t>
   </si>
   <si>
-    <t>Element `OperationDefinition.parameter.binding.valueSet` is mapped to FHIR R4 element `OperationDefinition.parameter.binding.valueSet`.</t>
+    <t>Element `OperationDefinition.parameter.binding.valueSet` is part of an existing definition because parent element `OperationDefinition.parameter.binding` requires a cross-version extension.
+Element `OperationDefinition.parameter.binding.valueSet` has is mapped to FHIR R4 element `OperationDefinition.parameter.binding.valueSet`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:binding.extension:valueSet.id</t>
@@ -891,8 +894,8 @@
     <t>Resolution applies if the referenced parameter exists.</t>
   </si>
   <si>
-    <t>Element `OperationDefinition.parameter.referencedFrom` is part of an existing definition because parent element `OperationDefinition.parameter` requires a component extension (e.g., if this element is used as a content reference).
-Element `OperationDefinition.parameter.referencedFrom` is mapped to FHIR R4 element `OperationDefinition.parameter.referencedFrom`.</t>
+    <t>Element `OperationDefinition.parameter.referencedFrom` is part of an existing definition because parent element `OperationDefinition.parameter` requires a cross-version extension.
+Element `OperationDefinition.parameter.referencedFrom` has is mapped to FHIR R4 element `OperationDefinition.parameter.referencedFrom`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:referencedFrom.id</t>
@@ -913,7 +916,8 @@
     <t>The name of the parameter or dot-separated path of parameter names pointing to the resource parameter that is expected to contain a reference to this resource.</t>
   </si>
   <si>
-    <t>Element `OperationDefinition.parameter.referencedFrom.source` is mapped to FHIR R4 element `OperationDefinition.parameter.referencedFrom.source`.</t>
+    <t>Element `OperationDefinition.parameter.referencedFrom.source` is part of an existing definition because parent element `OperationDefinition.parameter.referencedFrom` requires a cross-version extension.
+Element `OperationDefinition.parameter.referencedFrom.source` has is mapped to FHIR R4 element `OperationDefinition.parameter.referencedFrom.source`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:referencedFrom.extension:source.id</t>
@@ -943,7 +947,8 @@
     <t>The id of the element in the referencing resource that is expected to resolve to this resource.</t>
   </si>
   <si>
-    <t>Element `OperationDefinition.parameter.referencedFrom.sourceId` is mapped to FHIR R4 element `OperationDefinition.parameter.referencedFrom.sourceId`.</t>
+    <t>Element `OperationDefinition.parameter.referencedFrom.sourceId` is part of an existing definition because parent element `OperationDefinition.parameter.referencedFrom` requires a cross-version extension.
+Element `OperationDefinition.parameter.referencedFrom.sourceId` has is mapped to FHIR R4 element `OperationDefinition.parameter.referencedFrom.sourceId`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:referencedFrom.extension:sourceId.id</t>
@@ -982,8 +987,8 @@
     <t>The parts of a nested Parameter.</t>
   </si>
   <si>
-    <t>Element `OperationDefinition.parameter.part` is part of an existing definition because parent element `OperationDefinition.parameter` requires a component extension (e.g., if this element is used as a content reference).
-Element `OperationDefinition.parameter.part` is mapped to FHIR R4 element `OperationDefinition.parameter.part`.</t>
+    <t>Element `OperationDefinition.parameter.part` is part of an existing definition because parent element `OperationDefinition.parameter` requires a cross-version extension.
+Element `OperationDefinition.parameter.part` has is mapped to FHIR R4 element `OperationDefinition.parameter.part`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:part.id</t>
@@ -1335,7 +1340,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="187.515625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="168.30859375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-OperationDefinition.parameter.xlsx
+++ b/StructureDefinition-ext-R5-OperationDefinition.parameter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3044" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3044" uniqueCount="308">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -128,7 +128,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -458,15 +458,6 @@
     <t>Extension.extension:use.value[x]</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Whether an operation parameter is an input or an output parameter.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-operation-parameter-use-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:scope</t>
   </si>
   <si>
@@ -701,7 +692,7 @@
     <t>Extension.extension:targetProfile.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-StructureDefinition|0.0.1-snapshot-3|StructureDefinition|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-StructureDefinition|StructureDefinition)
 </t>
   </si>
   <si>
@@ -739,12 +730,6 @@
     <t>Extension.extension:searchType.value[x]</t>
   </si>
   <si>
-    <t>Data types allowed to be used for search parameters.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-search-param-type-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:binding</t>
   </si>
   <si>
@@ -816,12 +801,6 @@
     <t>Extension.extension.extension.value[x]</t>
   </si>
   <si>
-    <t>Indication of the degree of conformance expectations associated with a binding.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-binding-strength-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:binding.extension:valueSet</t>
   </si>
   <si>
@@ -856,7 +835,7 @@
     <t>Extension.extension:binding.extension:valueSet.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-ValueSet|0.0.1-snapshot-3|ValueSet|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-ValueSet|ValueSet)
 </t>
   </si>
   <si>
@@ -1350,8 +1329,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="65.24609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="63.7890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2800,13 +2779,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2844,13 +2823,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2875,14 +2854,14 @@
         <v>95</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2951,7 +2930,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>108</v>
@@ -3054,7 +3033,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>110</v>
@@ -3159,7 +3138,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>116</v>
@@ -3202,7 +3181,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3264,7 +3243,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>125</v>
@@ -3293,10 +3272,10 @@
         <v>126</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3367,13 +3346,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3398,14 +3377,14 @@
         <v>95</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3474,7 +3453,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>108</v>
@@ -3577,7 +3556,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>110</v>
@@ -3682,7 +3661,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>116</v>
@@ -3725,7 +3704,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3787,7 +3766,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>125</v>
@@ -3813,13 +3792,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3890,13 +3869,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3921,14 +3900,14 @@
         <v>95</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3997,7 +3976,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>108</v>
@@ -4100,7 +4079,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>110</v>
@@ -4205,7 +4184,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>116</v>
@@ -4248,7 +4227,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4310,7 +4289,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>125</v>
@@ -4339,10 +4318,10 @@
         <v>88</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4413,13 +4392,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4444,14 +4423,14 @@
         <v>95</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4520,7 +4499,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>108</v>
@@ -4623,7 +4602,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>110</v>
@@ -4728,7 +4707,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>116</v>
@@ -4771,7 +4750,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4833,7 +4812,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>125</v>
@@ -4859,13 +4838,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4936,13 +4915,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4967,16 +4946,16 @@
         <v>95</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="O35" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5045,7 +5024,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>108</v>
@@ -5148,7 +5127,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>110</v>
@@ -5253,7 +5232,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>116</v>
@@ -5296,7 +5275,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5358,7 +5337,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>125</v>
@@ -5387,13 +5366,13 @@
         <v>126</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5463,13 +5442,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5494,16 +5473,16 @@
         <v>95</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="O40" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5572,7 +5551,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>108</v>
@@ -5675,7 +5654,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>110</v>
@@ -5780,7 +5759,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>116</v>
@@ -5823,7 +5802,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -5885,7 +5864,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>125</v>
@@ -5914,13 +5893,13 @@
         <v>126</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -5990,13 +5969,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -6021,16 +6000,16 @@
         <v>95</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O45" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6099,7 +6078,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>108</v>
@@ -6202,7 +6181,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>110</v>
@@ -6307,7 +6286,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>116</v>
@@ -6350,7 +6329,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6412,7 +6391,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>125</v>
@@ -6438,16 +6417,16 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6517,13 +6496,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -6548,16 +6527,16 @@
         <v>95</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="O50" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -6626,7 +6605,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>108</v>
@@ -6729,7 +6708,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>110</v>
@@ -6834,7 +6813,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>116</v>
@@ -6877,7 +6856,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -6939,7 +6918,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>125</v>
@@ -6968,13 +6947,13 @@
         <v>126</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7000,13 +6979,13 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>77</v>
@@ -7044,13 +7023,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7075,14 +7054,14 @@
         <v>95</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7151,7 +7130,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>108</v>
@@ -7254,7 +7233,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>110</v>
@@ -7265,7 +7244,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>79</v>
@@ -7357,13 +7336,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>110</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -7388,16 +7367,16 @@
         <v>95</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -7466,10 +7445,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7569,10 +7548,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7674,10 +7653,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7717,7 +7696,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>77</v>
@@ -7779,10 +7758,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -7808,13 +7787,13 @@
         <v>126</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -7840,13 +7819,13 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>77</v>
@@ -7884,13 +7863,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>110</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>77</v>
@@ -7915,16 +7894,16 @@
         <v>95</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -7993,10 +7972,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8096,10 +8075,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8201,10 +8180,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8244,7 +8223,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>77</v>
@@ -8306,10 +8285,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8332,16 +8311,16 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -8411,7 +8390,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>116</v>
@@ -8454,7 +8433,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8516,7 +8495,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>125</v>
@@ -8542,13 +8521,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -8619,13 +8598,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -8650,16 +8629,16 @@
         <v>95</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -8728,7 +8707,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>108</v>
@@ -8831,7 +8810,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>110</v>
@@ -8934,13 +8913,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>110</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>77</v>
@@ -8965,14 +8944,14 @@
         <v>95</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -9041,10 +9020,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9144,10 +9123,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9249,10 +9228,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9292,7 +9271,7 @@
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>77</v>
@@ -9354,10 +9333,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9383,10 +9362,10 @@
         <v>88</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -9457,13 +9436,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>110</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>77</v>
@@ -9488,14 +9467,14 @@
         <v>95</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -9564,10 +9543,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9667,10 +9646,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -9772,10 +9751,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -9815,7 +9794,7 @@
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>77</v>
@@ -9877,10 +9856,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -9906,10 +9885,10 @@
         <v>88</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -9980,7 +9959,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>116</v>
@@ -10023,7 +10002,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -10085,7 +10064,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>125</v>
@@ -10111,13 +10090,13 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10188,13 +10167,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
@@ -10219,16 +10198,16 @@
         <v>95</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="N85" t="s" s="2">
         <v>83</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -10297,7 +10276,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>108</v>
@@ -10400,7 +10379,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>110</v>
@@ -10505,7 +10484,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>116</v>
@@ -10610,7 +10589,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>125</v>
@@ -10636,13 +10615,13 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -10844,13 +10823,13 @@
         <v>77</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
